--- a/NMFS_determinations.xlsx
+++ b/NMFS_determinations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\DOWPractice\NMFS7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevans\repos\NMFS7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Biops" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,11 +25,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="284">
+  <si>
+    <t>NMFS Critical Habitat Determination</t>
+  </si>
+  <si>
+    <t>Jeopardy &amp; Ad Mod</t>
+  </si>
+  <si>
+    <t>Ad Mod</t>
+  </si>
+  <si>
+    <t>Jeopardy, No Ad Mod</t>
+  </si>
+  <si>
+    <t>May Affect</t>
+  </si>
+  <si>
+    <t>May Affect - LAA</t>
+  </si>
+  <si>
+    <t>May Affect - NLAA</t>
+  </si>
+  <si>
+    <t>No Ad Mod</t>
+  </si>
+  <si>
+    <t>No Effect</t>
+  </si>
+  <si>
+    <t>No Response</t>
+  </si>
+  <si>
+    <t>Technical Assistance Provided</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
+  </si>
+  <si>
+    <t>NMFS Species Determination</t>
+  </si>
   <si>
     <t>Adverse Mod, No Jeopardy</t>
   </si>
   <si>
+    <t>Jeopardy &amp; Adverse Modification</t>
+  </si>
+  <si>
+    <t>Jeopardy, No Adverse Mod</t>
+  </si>
+  <si>
+    <t>No Jeopardy, No Adverse Mod</t>
+  </si>
+  <si>
+    <t>Not Likely to Adversely Affect</t>
+  </si>
+  <si>
+    <t>Ad Mod, No Jeopardy</t>
+  </si>
+  <si>
+    <t>Technical Assistance</t>
+  </si>
+  <si>
+    <t>Action Agency</t>
+  </si>
+  <si>
     <t>May Adversely Affect</t>
   </si>
   <si>
@@ -38,89 +99,791 @@
     <t>May Affect - Not Likely to Adversely Affect</t>
   </si>
   <si>
-    <t>No Effect</t>
-  </si>
-  <si>
     <t>Proposed Species - Likely to Jeopardize</t>
   </si>
   <si>
     <t>Proposed Species - Not Likely to Jeopardize</t>
   </si>
   <si>
-    <t>No Jeopardy, No Adverse Mod</t>
-  </si>
-  <si>
-    <t>No Response</t>
-  </si>
-  <si>
-    <t>NLAA</t>
-  </si>
-  <si>
-    <t>Technical Assistance</t>
-  </si>
-  <si>
-    <t>Withdrawn</t>
+    <t xml:space="preserve">Action Agency </t>
   </si>
   <si>
     <t>Adverse Modification</t>
   </si>
   <si>
-    <t>May Affect</t>
-  </si>
-  <si>
     <t>No Adverse Modification</t>
   </si>
   <si>
-    <t>Technical Assistance Provided</t>
-  </si>
-  <si>
-    <t>Jeopardy &amp; Adverse Modification</t>
-  </si>
-  <si>
-    <t>Jeopardy, No Adverse Mod</t>
-  </si>
-  <si>
-    <t>Not Likely to Adversely Affect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action Agency </t>
-  </si>
-  <si>
-    <t>NMFS Critical Habitat Determination</t>
-  </si>
-  <si>
-    <t>Action Agency</t>
-  </si>
-  <si>
-    <t>NMFS Species Determination</t>
-  </si>
-  <si>
-    <t>Ad Mod</t>
-  </si>
-  <si>
-    <t>Jeopardy &amp; Ad Mod</t>
-  </si>
-  <si>
-    <t>Jeopardy, No Ad Mod</t>
-  </si>
-  <si>
-    <t>May Affect - LAA</t>
-  </si>
-  <si>
-    <t>May Affect - NLAA</t>
-  </si>
-  <si>
-    <t>No Ad Mod</t>
-  </si>
-  <si>
-    <t>Ad Mod, No Jeopardy</t>
+    <t>NMFS.Tracking.Number</t>
+  </si>
+  <si>
+    <t>Common.Name</t>
+  </si>
+  <si>
+    <t>Population.Name</t>
+  </si>
+  <si>
+    <t>Species Determination</t>
+  </si>
+  <si>
+    <t>Critical Habitat Determination</t>
+  </si>
+  <si>
+    <t>NEW Jeopardy</t>
+  </si>
+  <si>
+    <t>NEW Critical Habitat</t>
+  </si>
+  <si>
+    <t>WCR-2014-596</t>
+  </si>
+  <si>
+    <t>Salmon, Chinook</t>
+  </si>
+  <si>
+    <t>Snake River spring/summer-run ESU</t>
+  </si>
+  <si>
+    <t>Missing Biop</t>
+  </si>
+  <si>
+    <t>Jeopardy</t>
+  </si>
+  <si>
+    <t>Steelhead</t>
+  </si>
+  <si>
+    <t>Snake River Basin DPS</t>
+  </si>
+  <si>
+    <t>No Jeopardy</t>
+  </si>
+  <si>
+    <t>WCR-2013-185</t>
+  </si>
+  <si>
+    <t>WCR-2014-663</t>
+  </si>
+  <si>
+    <t>WCR-2014-680</t>
+  </si>
+  <si>
+    <t>Snake River fall-run ESU</t>
+  </si>
+  <si>
+    <t>WCR-2016-4082</t>
+  </si>
+  <si>
+    <t>California Central Valley DPS</t>
+  </si>
+  <si>
+    <t>Sturgeon, green</t>
+  </si>
+  <si>
+    <t>WCR-2016-5673</t>
+  </si>
+  <si>
+    <t>Central Valley spring-run ESU</t>
+  </si>
+  <si>
+    <t>Sacramento River winter-run ESU</t>
+  </si>
+  <si>
+    <t>WCR-2017-6480</t>
+  </si>
+  <si>
+    <t>Salmon, Chinook Lower</t>
+  </si>
+  <si>
+    <t>Columbia River ESU</t>
+  </si>
+  <si>
+    <t>SER-2015-16542</t>
+  </si>
+  <si>
+    <t>Coral, Mountainous Star</t>
+  </si>
+  <si>
+    <t>Range-wide</t>
+  </si>
+  <si>
+    <t>SWR-2007-3680</t>
+  </si>
+  <si>
+    <t>Turtle, leatherback sea</t>
+  </si>
+  <si>
+    <t>WCR-2013-76</t>
+  </si>
+  <si>
+    <t>Whale, killer</t>
+  </si>
+  <si>
+    <t>Southern Resident</t>
+  </si>
+  <si>
+    <t>WCR-2015-2794</t>
+  </si>
+  <si>
+    <t>SWR-2012-1258</t>
+  </si>
+  <si>
+    <t>NWR-2013-10562</t>
+  </si>
+  <si>
+    <t>Puget Sound ESU</t>
+  </si>
+  <si>
+    <t>Mod May Affect - Not Likely to Adversely Affect</t>
+  </si>
+  <si>
+    <t>SER-2010-3497</t>
+  </si>
+  <si>
+    <t>Sturgeon, Gulf</t>
+  </si>
+  <si>
+    <t>Turtle, Kemp's ridley sea</t>
+  </si>
+  <si>
+    <t>Turtle, green sea</t>
+  </si>
+  <si>
+    <t>Turtle, loggerhead sea</t>
+  </si>
+  <si>
+    <t>WCR-2014-467</t>
+  </si>
+  <si>
+    <t>WCR-2014-605</t>
+  </si>
+  <si>
+    <t>WCR-2014-640</t>
+  </si>
+  <si>
+    <t>WCR-2014-682</t>
+  </si>
+  <si>
+    <t>Salmon, sockeye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Snake River ESU</t>
+  </si>
+  <si>
+    <t>FPR-2013-9060</t>
+  </si>
+  <si>
+    <t>Florida Breeding Populations</t>
+  </si>
+  <si>
+    <t>SER-2014-15058</t>
+  </si>
+  <si>
+    <t>WCR-2015-3915</t>
+  </si>
+  <si>
+    <t>Lower Columbia River DPS</t>
+  </si>
+  <si>
+    <t>Salmon, coho</t>
+  </si>
+  <si>
+    <t>WCR-2016-5783</t>
+  </si>
+  <si>
+    <t>Ozette Lake ESU</t>
+  </si>
+  <si>
+    <t>Central California Coast DPS</t>
+  </si>
+  <si>
+    <t>WCR-2014-1785</t>
+  </si>
+  <si>
+    <t>NWR-1999-1903</t>
+  </si>
+  <si>
+    <t>SWR-2012-3549</t>
+  </si>
+  <si>
+    <t>Southern Oregon/Northern California Coast ESU</t>
+  </si>
+  <si>
+    <t>California Coastal ESU</t>
+  </si>
+  <si>
+    <t>Northern California DPS</t>
+  </si>
+  <si>
+    <t>AKR-2015-9442</t>
+  </si>
+  <si>
+    <t>Whale, beluga</t>
+  </si>
+  <si>
+    <t>Cook Inlet</t>
+  </si>
+  <si>
+    <t>FPR-2016-9182</t>
+  </si>
+  <si>
+    <t>Middle Columbia River DPS</t>
+  </si>
+  <si>
+    <t>Puget Sound DPS</t>
+  </si>
+  <si>
+    <t>Southern DPS</t>
+  </si>
+  <si>
+    <t>Sturgeon, shortnose</t>
+  </si>
+  <si>
+    <t>Turtle, hawksbill sea</t>
+  </si>
+  <si>
+    <t>Southern California DPS</t>
+  </si>
+  <si>
+    <t>Upper Columbia River DPS</t>
+  </si>
+  <si>
+    <t>Upper Willamette River DPS</t>
+  </si>
+  <si>
+    <t>Coral, elkhorn</t>
+  </si>
+  <si>
+    <t>Coral, staghorn</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>Salmon, Atlantic</t>
+  </si>
+  <si>
+    <t>Gulf of Maine DPS</t>
+  </si>
+  <si>
+    <t>Lower Columbia River ESU</t>
+  </si>
+  <si>
+    <t>Upper Columbia River spring-run ESU</t>
+  </si>
+  <si>
+    <t>Upper Willamette River ESU</t>
+  </si>
+  <si>
+    <t>Salmon, chum</t>
+  </si>
+  <si>
+    <t>Hood Canal summer-run ESU</t>
+  </si>
+  <si>
+    <t>Central California Coast ESU</t>
+  </si>
+  <si>
+    <t>Oregon Coast ESU</t>
+  </si>
+  <si>
+    <t>Snake River ESU</t>
+  </si>
+  <si>
+    <t>SWR-2012-2390</t>
+  </si>
+  <si>
+    <t>WCR-2016-5014</t>
+  </si>
+  <si>
+    <t>SER-2014-13020</t>
+  </si>
+  <si>
+    <t>Seagrass, Johnson's</t>
+  </si>
+  <si>
+    <t>SER-2014-13067</t>
+  </si>
+  <si>
+    <t>SER-2014-13108</t>
+  </si>
+  <si>
+    <t>SER-2014-13109</t>
+  </si>
+  <si>
+    <t>SER-2014-13455</t>
+  </si>
+  <si>
+    <t>SER-2014-15068</t>
+  </si>
+  <si>
+    <t>Sawfish, smalltooth</t>
+  </si>
+  <si>
+    <t>U.S. DPS</t>
+  </si>
+  <si>
+    <t>SWR-2011-2961</t>
+  </si>
+  <si>
+    <t>SWR-2011-3943</t>
+  </si>
+  <si>
+    <t>SWR-2012-3637</t>
+  </si>
+  <si>
+    <t>SWR-2013-9525</t>
+  </si>
+  <si>
+    <t>WCR-2014-440</t>
+  </si>
+  <si>
+    <t>SER-2013-12486</t>
+  </si>
+  <si>
+    <t>SER-2013-12565</t>
+  </si>
+  <si>
+    <t>SER-2013-12620</t>
+  </si>
+  <si>
+    <t>SER-2014-12893</t>
+  </si>
+  <si>
+    <t>SER-2014-12927</t>
+  </si>
+  <si>
+    <t>SER-2014-12935</t>
+  </si>
+  <si>
+    <t>SER-2014-13050</t>
+  </si>
+  <si>
+    <t>SER-2014-13373</t>
+  </si>
+  <si>
+    <t>Not Mentioned</t>
+  </si>
+  <si>
+    <t>SER-2015-16999</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>SWR-2012-4129</t>
+  </si>
+  <si>
+    <t>SWR-2013-9398</t>
+  </si>
+  <si>
+    <t>SWR-2013-9399</t>
+  </si>
+  <si>
+    <t>SER-2012-1825</t>
+  </si>
+  <si>
+    <t>SER-2013-11072</t>
+  </si>
+  <si>
+    <t>SER-2013-11293</t>
+  </si>
+  <si>
+    <t>SER-2013-11380</t>
+  </si>
+  <si>
+    <t>SER-2014-13370</t>
+  </si>
+  <si>
+    <t>SER-2014-14478</t>
+  </si>
+  <si>
+    <t>SER-2014-14479</t>
+  </si>
+  <si>
+    <t>SER-2014-14480</t>
+  </si>
+  <si>
+    <t>SER-2014-14568</t>
+  </si>
+  <si>
+    <t>SER-2015-16287</t>
+  </si>
+  <si>
+    <t>SER-2016-17794</t>
+  </si>
+  <si>
+    <t>SER-2016-17809</t>
+  </si>
+  <si>
+    <t>SER-2016-17893</t>
+  </si>
+  <si>
+    <t>SER-2016-17903</t>
+  </si>
+  <si>
+    <t>SER-2016-17928</t>
+  </si>
+  <si>
+    <t>WCR-2014-513</t>
+  </si>
+  <si>
+    <t>WCR-2014-960</t>
+  </si>
+  <si>
+    <t>WCR-2015-2518</t>
+  </si>
+  <si>
+    <t>WCR-2016-4027</t>
+  </si>
+  <si>
+    <t>WCR-2016-4431</t>
+  </si>
+  <si>
+    <t>AKR-2014-9366</t>
+  </si>
+  <si>
+    <t>Sea lion, Steller</t>
+  </si>
+  <si>
+    <t>AKR-2015-9415</t>
+  </si>
+  <si>
+    <t>Whale, humpback</t>
+  </si>
+  <si>
+    <t>AKR-2015-9426</t>
+  </si>
+  <si>
+    <t>AKR-2016-9544</t>
+  </si>
+  <si>
+    <t>FPR-2014-9105</t>
+  </si>
+  <si>
+    <t>NER-2003-1143</t>
+  </si>
+  <si>
+    <t>Whale, fin</t>
+  </si>
+  <si>
+    <t>Whale, North Atlantic right</t>
+  </si>
+  <si>
+    <t>NER-2003-961</t>
+  </si>
+  <si>
+    <t>NER-2007-3720</t>
+  </si>
+  <si>
+    <t>NER-2014-10707</t>
+  </si>
+  <si>
+    <t>NER-2014-10946</t>
+  </si>
+  <si>
+    <t>NER-2016-13077</t>
+  </si>
+  <si>
+    <t>Sturgeon, Atlantic</t>
+  </si>
+  <si>
+    <t>Chesapeake Bay DPS</t>
+  </si>
+  <si>
+    <t>NWR-2011-2313</t>
+  </si>
+  <si>
+    <t>NWR-2012-4882</t>
+  </si>
+  <si>
+    <t>NWR-2013-10124</t>
+  </si>
+  <si>
+    <t>Bocaccio</t>
+  </si>
+  <si>
+    <t>SER-2009-762</t>
+  </si>
+  <si>
+    <t>SER-2010-6853</t>
+  </si>
+  <si>
+    <t>SER-2012-2282</t>
+  </si>
+  <si>
+    <t>SER-2012-3177</t>
+  </si>
+  <si>
+    <t>SER-2012-3181</t>
+  </si>
+  <si>
+    <t>SER-2012-3777</t>
+  </si>
+  <si>
+    <t>SER-2012-9303</t>
+  </si>
+  <si>
+    <t>SER-2013-10503</t>
+  </si>
+  <si>
+    <t>SER-2013-10836</t>
+  </si>
+  <si>
+    <t>SER-2013-11069</t>
+  </si>
+  <si>
+    <t>SER-2013-11209</t>
+  </si>
+  <si>
+    <t>SER-2013-11452</t>
+  </si>
+  <si>
+    <t>SER-2013-11502</t>
+  </si>
+  <si>
+    <t>SER-2013-11547</t>
+  </si>
+  <si>
+    <t>SER-2013-11655</t>
+  </si>
+  <si>
+    <t>SER-2013-11848</t>
+  </si>
+  <si>
+    <t>SER-2013-11937</t>
+  </si>
+  <si>
+    <t>SER-2013-11961</t>
+  </si>
+  <si>
+    <t>SER-2013-11983</t>
+  </si>
+  <si>
+    <t>SER-2013-11984</t>
+  </si>
+  <si>
+    <t>SER-2013-11989</t>
+  </si>
+  <si>
+    <t>SER-2013-11990</t>
+  </si>
+  <si>
+    <t>SER-2013-12140</t>
+  </si>
+  <si>
+    <t>SER-2013-12184</t>
+  </si>
+  <si>
+    <t>SER-2013-12382</t>
+  </si>
+  <si>
+    <t>SER-2013-12432</t>
+  </si>
+  <si>
+    <t>SER-2013-12458</t>
+  </si>
+  <si>
+    <t>SER-2013-12613</t>
+  </si>
+  <si>
+    <t>SER-2014-12933</t>
+  </si>
+  <si>
+    <t>SER-2014-13011</t>
+  </si>
+  <si>
+    <t>SER-2014-13099</t>
+  </si>
+  <si>
+    <t>SER-2014-13282</t>
+  </si>
+  <si>
+    <t>SER-2014-13308</t>
+  </si>
+  <si>
+    <t>SER-2014-13456</t>
+  </si>
+  <si>
+    <t>SER-2014-13457</t>
+  </si>
+  <si>
+    <t>SER-2014-13486</t>
+  </si>
+  <si>
+    <t>SER-2014-13911</t>
+  </si>
+  <si>
+    <t>SER-2014-15668</t>
+  </si>
+  <si>
+    <t>Northwest Atlantic Ocean DPS</t>
+  </si>
+  <si>
+    <t>SER-2015-16724</t>
+  </si>
+  <si>
+    <t>SER-2015-16737</t>
+  </si>
+  <si>
+    <t>SER-2015-16914</t>
+  </si>
+  <si>
+    <t>SER-2015-16936</t>
+  </si>
+  <si>
+    <t>SER-2015-16942</t>
+  </si>
+  <si>
+    <t>SER-2015-17195</t>
+  </si>
+  <si>
+    <t>SER-2015-17277</t>
+  </si>
+  <si>
+    <t>SER-2015-17457</t>
+  </si>
+  <si>
+    <t>SER-2015-17551</t>
+  </si>
+  <si>
+    <t>SER-2015-17611</t>
+  </si>
+  <si>
+    <t>SER-2015-17631</t>
+  </si>
+  <si>
+    <t>SER-2016-17660</t>
+  </si>
+  <si>
+    <t>SER-2016-17661</t>
+  </si>
+  <si>
+    <t>SER-2016-17949</t>
+  </si>
+  <si>
+    <t>SER-2016-18081</t>
+  </si>
+  <si>
+    <t>SER-2016-18105</t>
+  </si>
+  <si>
+    <t>SER-2016-18138</t>
+  </si>
+  <si>
+    <t>SER-2016-18158</t>
+  </si>
+  <si>
+    <t>SER-2016-18160</t>
+  </si>
+  <si>
+    <t>SER-2016-18192</t>
+  </si>
+  <si>
+    <t>SER-2017-18380</t>
+  </si>
+  <si>
+    <t>SER-2017-18386</t>
+  </si>
+  <si>
+    <t>SER-2017-18392</t>
+  </si>
+  <si>
+    <t>SWR-2009-7598</t>
+  </si>
+  <si>
+    <t>SWR-2011-5671</t>
+  </si>
+  <si>
+    <t>SWR-2012-3420</t>
+  </si>
+  <si>
+    <t>SWR-2012-3975</t>
+  </si>
+  <si>
+    <t>SWR-2012-9330</t>
+  </si>
+  <si>
+    <t>SWR-2012-9382</t>
+  </si>
+  <si>
+    <t>SWR-2013-9562</t>
+  </si>
+  <si>
+    <t>SWR-2013-9678</t>
+  </si>
+  <si>
+    <t>SWR-2013-9712</t>
+  </si>
+  <si>
+    <t>WCR-2013-106</t>
+  </si>
+  <si>
+    <t>WCR-2013-52</t>
+  </si>
+  <si>
+    <t>WCR-2014-1114</t>
+  </si>
+  <si>
+    <t>WCR-2014-1186</t>
+  </si>
+  <si>
+    <t>WCR-2014-1657</t>
+  </si>
+  <si>
+    <t>WCR-2014-1814</t>
+  </si>
+  <si>
+    <t>WCR-2014-243</t>
+  </si>
+  <si>
+    <t>WCR-2014-394</t>
+  </si>
+  <si>
+    <t>WCR-2014-398</t>
+  </si>
+  <si>
+    <t>WCR-2014-504</t>
+  </si>
+  <si>
+    <t>WCR-2014-580</t>
+  </si>
+  <si>
+    <t>WCR-2014-744</t>
+  </si>
+  <si>
+    <t>WCR-2014-839</t>
+  </si>
+  <si>
+    <t>WCR-2014-876</t>
+  </si>
+  <si>
+    <t>WCR-2015-3248</t>
+  </si>
+  <si>
+    <t>WCR-2016-4022</t>
+  </si>
+  <si>
+    <t>WCR-2016-4122</t>
+  </si>
+  <si>
+    <t>WCR-2016-4536</t>
+  </si>
+  <si>
+    <t>WCR-2016-5168</t>
+  </si>
+  <si>
+    <t>WCR-2016-5227</t>
+  </si>
+  <si>
+    <t>WCR-2016-5574</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +905,25 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,18 +938,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,74 +1253,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>22</v>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -566,18 +1363,18 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -608,18 +1405,18 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
+        <v>577</v>
+      </c>
+      <c r="F6">
         <v>44</v>
-      </c>
-      <c r="F6">
-        <v>577</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -650,9 +1447,9 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>23</v>
@@ -692,36 +1489,36 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" s="2">
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14432</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="L8">
-        <v>415</v>
+        <v>749</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -734,36 +1531,36 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1142</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
+        <v>8104</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>14432</v>
+        <v>123</v>
       </c>
       <c r="J9">
-        <v>237</v>
+        <v>45163</v>
       </c>
       <c r="K9">
-        <v>1746</v>
+        <v>681</v>
       </c>
       <c r="L9">
-        <v>749</v>
+        <v>10346</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -776,7 +1573,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -805,53 +1602,53 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>376</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>8104</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>123</v>
-      </c>
-      <c r="J11">
-        <v>45163</v>
-      </c>
-      <c r="K11">
-        <v>681</v>
-      </c>
-      <c r="L11">
-        <v>10346</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -860,9 +1657,9 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -902,18 +1699,18 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13">
         <v>3727</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -944,197 +1741,197 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="D16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
         <v>8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>21</v>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>14236</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="F18">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>69</v>
       </c>
-      <c r="H18">
+      <c r="J18">
+        <v>1920</v>
+      </c>
+      <c r="K18">
+        <v>1375</v>
+      </c>
+      <c r="L18">
         <v>40</v>
       </c>
-      <c r="I18">
-        <v>1375</v>
-      </c>
-      <c r="J18">
+      <c r="M18">
         <v>61</v>
       </c>
-      <c r="K18">
-        <v>1920</v>
-      </c>
-      <c r="L18">
+      <c r="N18">
         <v>3514</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>10</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>84</v>
+      </c>
+      <c r="K19">
         <v>352</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>84</v>
-      </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20">
+        <v>241</v>
+      </c>
+      <c r="F20">
         <v>21</v>
-      </c>
-      <c r="F20">
-        <v>241</v>
       </c>
       <c r="G20">
         <v>80</v>
       </c>
-      <c r="H20">
+      <c r="J20">
+        <v>2347</v>
+      </c>
+      <c r="K20">
+        <v>13789</v>
+      </c>
+      <c r="L20">
         <v>23</v>
       </c>
-      <c r="I20">
-        <v>13789</v>
-      </c>
-      <c r="J20">
+      <c r="M20">
         <v>50</v>
       </c>
-      <c r="K20">
-        <v>2347</v>
-      </c>
-      <c r="L20">
+      <c r="N20">
         <v>4257</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>1302</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21">
+        <v>177</v>
+      </c>
+      <c r="F21">
         <v>1</v>
-      </c>
-      <c r="F21">
-        <v>177</v>
       </c>
       <c r="G21">
         <v>13</v>
       </c>
-      <c r="H21">
+      <c r="J21">
+        <v>59216</v>
+      </c>
+      <c r="K21">
+        <v>2752</v>
+      </c>
+      <c r="L21">
         <v>203</v>
       </c>
-      <c r="I21">
-        <v>2752</v>
-      </c>
-      <c r="J21">
+      <c r="M21">
         <v>145</v>
       </c>
-      <c r="K21">
-        <v>59216</v>
-      </c>
-      <c r="L21">
+      <c r="N21">
         <v>4877</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>7011</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1148,48 +1945,42 @@
       <c r="G22">
         <v>7</v>
       </c>
-      <c r="H22">
+      <c r="J22">
+        <v>858</v>
+      </c>
+      <c r="K22">
+        <v>54</v>
+      </c>
+      <c r="L22">
         <v>149</v>
       </c>
-      <c r="I22">
-        <v>54</v>
-      </c>
-      <c r="J22">
+      <c r="M22">
         <v>120</v>
       </c>
-      <c r="K22">
-        <v>858</v>
-      </c>
-      <c r="L22">
+      <c r="N22">
         <v>728</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>3542</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F23">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -1200,13 +1991,19 @@
         <v>0</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1220,22 +2017,22 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <v>32</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>9</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>6</v>
       </c>
     </row>
@@ -1243,70 +2040,70 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="D26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>19</v>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28">
         <v>14242</v>
       </c>
       <c r="E28">
+        <v>577</v>
+      </c>
+      <c r="F28">
         <v>1</v>
-      </c>
-      <c r="F28">
-        <v>577</v>
       </c>
       <c r="G28">
         <v>120</v>
@@ -1337,18 +2134,18 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1379,18 +2176,18 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>16</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>9</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1421,18 +2218,18 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>51</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>31</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1463,18 +2260,18 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <v>5314</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>9</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1505,9 +2302,9 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>117</v>
@@ -1547,18 +2344,18 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>7658</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1600,4 +2397,5717 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>110348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>110349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>109291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>109292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>110386</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>110396</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>110397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>112173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>112174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>113219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>113221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>113222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>113220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>113606</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>113609</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>87829</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>102946</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>109369</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>111236</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>108108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>54705</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>69886</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>69887</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>69888</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>69889</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>110190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>110191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>110357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>110379</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>110399</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>3933</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>85754</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>112000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>112001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>113299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>113307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>109910</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>110398</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>117762</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>117767</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>108492</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>108493</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>108494</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>399</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>5141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>5142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5189</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5193</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5194</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>108293</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>108294</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>108295</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>108296</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>108297</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>112765</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>112766</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>112767</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>112768</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>82332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>82511</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>82727</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>82732</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>83545</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>85826</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>107488</v>
+      </c>
+      <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>107660</v>
+      </c>
+      <c r="B97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>108514</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>108515</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>108516</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>108517</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>108923</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>110178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>110179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>110180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>81121</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>81281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>81510</v>
+      </c>
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>81978</v>
+      </c>
+      <c r="B109" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>82023</v>
+      </c>
+      <c r="B110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>82082</v>
+      </c>
+      <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>82446</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>83331</v>
+      </c>
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>85827</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>145</v>
+      </c>
+      <c r="H114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>89250</v>
+      </c>
+      <c r="B115" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>108574</v>
+      </c>
+      <c r="B116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>108827</v>
+      </c>
+      <c r="B117" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>108828</v>
+      </c>
+      <c r="B118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>73176</v>
+      </c>
+      <c r="B119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>76451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>77415</v>
+      </c>
+      <c r="B121" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>77530</v>
+      </c>
+      <c r="B122" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>83319</v>
+      </c>
+      <c r="B123" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>43</v>
+      </c>
+      <c r="H123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>84710</v>
+      </c>
+      <c r="B124" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>84716</v>
+      </c>
+      <c r="B125" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>84726</v>
+      </c>
+      <c r="B126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>84843</v>
+      </c>
+      <c r="B127" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" t="s">
+        <v>124</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>43</v>
+      </c>
+      <c r="H127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>87460</v>
+      </c>
+      <c r="B128" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" t="s">
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>91822</v>
+      </c>
+      <c r="B129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>91897</v>
+      </c>
+      <c r="B130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>43</v>
+      </c>
+      <c r="H130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>92178</v>
+      </c>
+      <c r="B131" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>92216</v>
+      </c>
+      <c r="B132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>92319</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>110247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>110589</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>111052</v>
+      </c>
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D136" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>112118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>112119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>112120</v>
+      </c>
+      <c r="B139" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>112405</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>112406</v>
+      </c>
+      <c r="B141" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D141" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>325</v>
+      </c>
+      <c r="B142" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" t="s">
+        <v>172</v>
+      </c>
+      <c r="E142" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>356</v>
+      </c>
+      <c r="B143" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" t="s">
+        <v>174</v>
+      </c>
+      <c r="D143" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>368</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>516</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" t="s">
+        <v>174</v>
+      </c>
+      <c r="D145" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>4348</v>
+      </c>
+      <c r="B146" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>5660</v>
+      </c>
+      <c r="B147" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" t="s">
+        <v>179</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>5666</v>
+      </c>
+      <c r="B148" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>5667</v>
+      </c>
+      <c r="B149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" t="s">
+        <v>174</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>5854</v>
+      </c>
+      <c r="B150" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>5855</v>
+      </c>
+      <c r="B151" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>5856</v>
+      </c>
+      <c r="B152" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>5857</v>
+      </c>
+      <c r="B153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>7883</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s">
+        <v>61</v>
+      </c>
+      <c r="D154" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>7884</v>
+      </c>
+      <c r="B155" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" t="s">
+        <v>72</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>7885</v>
+      </c>
+      <c r="B156" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>14815</v>
+      </c>
+      <c r="B157" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" t="s">
+        <v>103</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>14983</v>
+      </c>
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>14984</v>
+      </c>
+      <c r="B159" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159" t="s">
+        <v>103</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>16713</v>
+      </c>
+      <c r="B160" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" t="s">
+        <v>186</v>
+      </c>
+      <c r="D160" t="s">
+        <v>187</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>50697</v>
+      </c>
+      <c r="B161" t="s">
+        <v>188</v>
+      </c>
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>53768</v>
+      </c>
+      <c r="B162" t="s">
+        <v>189</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" t="s">
+        <v>100</v>
+      </c>
+      <c r="E162" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>54368</v>
+      </c>
+      <c r="B163" t="s">
+        <v>190</v>
+      </c>
+      <c r="C163" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" t="s">
+        <v>110</v>
+      </c>
+      <c r="E163" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>69098</v>
+      </c>
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" t="s">
+        <v>110</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>70748</v>
+      </c>
+      <c r="B165" t="s">
+        <v>193</v>
+      </c>
+      <c r="C165" t="s">
+        <v>74</v>
+      </c>
+      <c r="E165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>73302</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" t="s">
+        <v>110</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>73682</v>
+      </c>
+      <c r="B167" t="s">
+        <v>195</v>
+      </c>
+      <c r="C167" t="s">
+        <v>130</v>
+      </c>
+      <c r="E167" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>73695</v>
+      </c>
+      <c r="B168" t="s">
+        <v>196</v>
+      </c>
+      <c r="C168" t="s">
+        <v>130</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>74008</v>
+      </c>
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>130</v>
+      </c>
+      <c r="E169" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>74745</v>
+      </c>
+      <c r="B170" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>75645</v>
+      </c>
+      <c r="B171" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+      <c r="E171" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>75969</v>
+      </c>
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+      <c r="C172" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>76434</v>
+      </c>
+      <c r="B173" t="s">
+        <v>201</v>
+      </c>
+      <c r="C173" t="s">
+        <v>130</v>
+      </c>
+      <c r="E173" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>77084</v>
+      </c>
+      <c r="B174" t="s">
+        <v>202</v>
+      </c>
+      <c r="C174" t="s">
+        <v>130</v>
+      </c>
+      <c r="E174" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>77847</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" t="s">
+        <v>130</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>78083</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>78150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177" t="s">
+        <v>130</v>
+      </c>
+      <c r="E177" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>78588</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
+        <v>130</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>78819</v>
+      </c>
+      <c r="B179" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>79120</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>79188</v>
+      </c>
+      <c r="B181" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>79347</v>
+      </c>
+      <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>79352</v>
+      </c>
+      <c r="B183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" t="s">
+        <v>130</v>
+      </c>
+      <c r="E183" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>79383</v>
+      </c>
+      <c r="B184" t="s">
+        <v>212</v>
+      </c>
+      <c r="C184" t="s">
+        <v>130</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>79392</v>
+      </c>
+      <c r="B185" t="s">
+        <v>213</v>
+      </c>
+      <c r="C185" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>79783</v>
+      </c>
+      <c r="B186" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>80049</v>
+      </c>
+      <c r="B187" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>80740</v>
+      </c>
+      <c r="B188" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>80925</v>
+      </c>
+      <c r="B189" t="s">
+        <v>217</v>
+      </c>
+      <c r="C189" t="s">
+        <v>130</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>81038</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190" t="s">
+        <v>130</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>81457</v>
+      </c>
+      <c r="B191" t="s">
+        <v>219</v>
+      </c>
+      <c r="C191" t="s">
+        <v>130</v>
+      </c>
+      <c r="D191" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>82068</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" t="s">
+        <v>130</v>
+      </c>
+      <c r="D192" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>82269</v>
+      </c>
+      <c r="B193" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>82672</v>
+      </c>
+      <c r="B194" t="s">
+        <v>222</v>
+      </c>
+      <c r="C194" t="s">
+        <v>130</v>
+      </c>
+      <c r="D194" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>83028</v>
+      </c>
+      <c r="B195" t="s">
+        <v>223</v>
+      </c>
+      <c r="C195" t="s">
+        <v>130</v>
+      </c>
+      <c r="D195" t="s">
+        <v>131</v>
+      </c>
+      <c r="E195" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>83176</v>
+      </c>
+      <c r="B196" t="s">
+        <v>224</v>
+      </c>
+      <c r="C196" t="s">
+        <v>130</v>
+      </c>
+      <c r="D196" t="s">
+        <v>131</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>83557</v>
+      </c>
+      <c r="B197" t="s">
+        <v>225</v>
+      </c>
+      <c r="C197" t="s">
+        <v>130</v>
+      </c>
+      <c r="D197" t="s">
+        <v>131</v>
+      </c>
+      <c r="E197" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>83559</v>
+      </c>
+      <c r="B198" t="s">
+        <v>226</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" t="s">
+        <v>131</v>
+      </c>
+      <c r="E198" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>83573</v>
+      </c>
+      <c r="B199" t="s">
+        <v>227</v>
+      </c>
+      <c r="C199" t="s">
+        <v>130</v>
+      </c>
+      <c r="D199" t="s">
+        <v>131</v>
+      </c>
+      <c r="E199" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>83857</v>
+      </c>
+      <c r="B200" t="s">
+        <v>228</v>
+      </c>
+      <c r="C200" t="s">
+        <v>124</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>86327</v>
+      </c>
+      <c r="B201" t="s">
+        <v>229</v>
+      </c>
+      <c r="C201" t="s">
+        <v>74</v>
+      </c>
+      <c r="D201" t="s">
+        <v>230</v>
+      </c>
+      <c r="E201" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>88038</v>
+      </c>
+      <c r="B202" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" t="s">
+        <v>130</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>88056</v>
+      </c>
+      <c r="B203" t="s">
+        <v>232</v>
+      </c>
+      <c r="C203" t="s">
+        <v>180</v>
+      </c>
+      <c r="D203" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>88899</v>
+      </c>
+      <c r="B204" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" t="s">
+        <v>130</v>
+      </c>
+      <c r="D204" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>88976</v>
+      </c>
+      <c r="B205" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" t="s">
+        <v>104</v>
+      </c>
+      <c r="D205" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>88994</v>
+      </c>
+      <c r="B206" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" t="s">
+        <v>73</v>
+      </c>
+      <c r="D206" t="s">
+        <v>59</v>
+      </c>
+      <c r="E206" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>88996</v>
+      </c>
+      <c r="B207" t="s">
+        <v>235</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" t="s">
+        <v>59</v>
+      </c>
+      <c r="E207" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>88997</v>
+      </c>
+      <c r="B208" t="s">
+        <v>235</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+      <c r="D208" t="s">
+        <v>110</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>89910</v>
+      </c>
+      <c r="B209" t="s">
+        <v>236</v>
+      </c>
+      <c r="C209" t="s">
+        <v>130</v>
+      </c>
+      <c r="D209" t="s">
+        <v>131</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>90005</v>
+      </c>
+      <c r="B210" t="s">
+        <v>237</v>
+      </c>
+      <c r="C210" t="s">
+        <v>130</v>
+      </c>
+      <c r="D210" t="s">
+        <v>131</v>
+      </c>
+      <c r="E210" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>90426</v>
+      </c>
+      <c r="B211" t="s">
+        <v>238</v>
+      </c>
+      <c r="C211" t="s">
+        <v>130</v>
+      </c>
+      <c r="D211" t="s">
+        <v>131</v>
+      </c>
+      <c r="E211" t="s">
+        <v>17</v>
+      </c>
+      <c r="F211" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>90957</v>
+      </c>
+      <c r="B212" t="s">
+        <v>239</v>
+      </c>
+      <c r="C212" t="s">
+        <v>130</v>
+      </c>
+      <c r="D212" t="s">
+        <v>131</v>
+      </c>
+      <c r="E212" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>91202</v>
+      </c>
+      <c r="B213" t="s">
+        <v>240</v>
+      </c>
+      <c r="C213" t="s">
+        <v>130</v>
+      </c>
+      <c r="D213" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>91297</v>
+      </c>
+      <c r="B214" t="s">
+        <v>241</v>
+      </c>
+      <c r="C214" t="s">
+        <v>130</v>
+      </c>
+      <c r="D214" t="s">
+        <v>131</v>
+      </c>
+      <c r="E214" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>91409</v>
+      </c>
+      <c r="B215" t="s">
+        <v>242</v>
+      </c>
+      <c r="C215" t="s">
+        <v>130</v>
+      </c>
+      <c r="D215" t="s">
+        <v>131</v>
+      </c>
+      <c r="E215" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>91415</v>
+      </c>
+      <c r="B216" t="s">
+        <v>243</v>
+      </c>
+      <c r="C216" t="s">
+        <v>130</v>
+      </c>
+      <c r="D216" t="s">
+        <v>131</v>
+      </c>
+      <c r="E216" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>92405</v>
+      </c>
+      <c r="B217" t="s">
+        <v>244</v>
+      </c>
+      <c r="C217" t="s">
+        <v>130</v>
+      </c>
+      <c r="D217" t="s">
+        <v>131</v>
+      </c>
+      <c r="E217" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>92911</v>
+      </c>
+      <c r="B218" t="s">
+        <v>245</v>
+      </c>
+      <c r="C218" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>92981</v>
+      </c>
+      <c r="B219" t="s">
+        <v>246</v>
+      </c>
+      <c r="C219" t="s">
+        <v>130</v>
+      </c>
+      <c r="D219" t="s">
+        <v>131</v>
+      </c>
+      <c r="E219" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>93078</v>
+      </c>
+      <c r="B220" t="s">
+        <v>247</v>
+      </c>
+      <c r="C220" t="s">
+        <v>130</v>
+      </c>
+      <c r="D220" t="s">
+        <v>131</v>
+      </c>
+      <c r="E220" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>93210</v>
+      </c>
+      <c r="B221" t="s">
+        <v>248</v>
+      </c>
+      <c r="C221" t="s">
+        <v>130</v>
+      </c>
+      <c r="D221" t="s">
+        <v>131</v>
+      </c>
+      <c r="E221" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>93219</v>
+      </c>
+      <c r="B222" t="s">
+        <v>249</v>
+      </c>
+      <c r="C222" t="s">
+        <v>130</v>
+      </c>
+      <c r="D222" t="s">
+        <v>131</v>
+      </c>
+      <c r="E222" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>93374</v>
+      </c>
+      <c r="B223" t="s">
+        <v>250</v>
+      </c>
+      <c r="C223" t="s">
+        <v>130</v>
+      </c>
+      <c r="D223" t="s">
+        <v>131</v>
+      </c>
+      <c r="E223" t="s">
+        <v>17</v>
+      </c>
+      <c r="F223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>93959</v>
+      </c>
+      <c r="B224" t="s">
+        <v>251</v>
+      </c>
+      <c r="C224" t="s">
+        <v>130</v>
+      </c>
+      <c r="D224" t="s">
+        <v>131</v>
+      </c>
+      <c r="E224" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>93985</v>
+      </c>
+      <c r="B225" t="s">
+        <v>252</v>
+      </c>
+      <c r="C225" t="s">
+        <v>130</v>
+      </c>
+      <c r="D225" t="s">
+        <v>131</v>
+      </c>
+      <c r="E225" t="s">
+        <v>17</v>
+      </c>
+      <c r="F225" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>93998</v>
+      </c>
+      <c r="B226" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" t="s">
+        <v>130</v>
+      </c>
+      <c r="D226" t="s">
+        <v>131</v>
+      </c>
+      <c r="E226" t="s">
+        <v>17</v>
+      </c>
+      <c r="F226" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>106120</v>
+      </c>
+      <c r="B227" t="s">
+        <v>254</v>
+      </c>
+      <c r="C227" t="s">
+        <v>37</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>107847</v>
+      </c>
+      <c r="B228" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>108468</v>
+      </c>
+      <c r="B229" t="s">
+        <v>256</v>
+      </c>
+      <c r="C229" t="s">
+        <v>86</v>
+      </c>
+      <c r="D229" t="s">
+        <v>93</v>
+      </c>
+      <c r="E229" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>108469</v>
+      </c>
+      <c r="B230" t="s">
+        <v>256</v>
+      </c>
+      <c r="C230" t="s">
+        <v>50</v>
+      </c>
+      <c r="D230" t="s">
+        <v>102</v>
+      </c>
+      <c r="E230" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>108470</v>
+      </c>
+      <c r="B231" t="s">
+        <v>256</v>
+      </c>
+      <c r="C231" t="s">
+        <v>41</v>
+      </c>
+      <c r="D231" t="s">
+        <v>95</v>
+      </c>
+      <c r="E231" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>108471</v>
+      </c>
+      <c r="B232" t="s">
+        <v>256</v>
+      </c>
+      <c r="C232" t="s">
+        <v>37</v>
+      </c>
+      <c r="D232" t="s">
+        <v>94</v>
+      </c>
+      <c r="E232" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>108554</v>
+      </c>
+      <c r="B233" t="s">
+        <v>257</v>
+      </c>
+      <c r="C233" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>108762</v>
+      </c>
+      <c r="B234" t="s">
+        <v>258</v>
+      </c>
+      <c r="C234" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" t="s">
+        <v>52</v>
+      </c>
+      <c r="E234" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>108798</v>
+      </c>
+      <c r="B235" t="s">
+        <v>259</v>
+      </c>
+      <c r="C235" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" t="s">
+        <v>94</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>108961</v>
+      </c>
+      <c r="B236" t="s">
+        <v>260</v>
+      </c>
+      <c r="C236" t="s">
+        <v>86</v>
+      </c>
+      <c r="E236" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>109054</v>
+      </c>
+      <c r="B237" t="s">
+        <v>261</v>
+      </c>
+      <c r="C237" t="s">
+        <v>50</v>
+      </c>
+      <c r="E237" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>109055</v>
+      </c>
+      <c r="B238" t="s">
+        <v>261</v>
+      </c>
+      <c r="C238" t="s">
+        <v>41</v>
+      </c>
+      <c r="E238" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>109056</v>
+      </c>
+      <c r="B239" t="s">
+        <v>261</v>
+      </c>
+      <c r="C239" t="s">
+        <v>37</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+      <c r="F239" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>109090</v>
+      </c>
+      <c r="B240" t="s">
+        <v>262</v>
+      </c>
+      <c r="C240" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" t="s">
+        <v>89</v>
+      </c>
+      <c r="E240" t="s">
+        <v>17</v>
+      </c>
+      <c r="F240" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>109236</v>
+      </c>
+      <c r="B241" t="s">
+        <v>263</v>
+      </c>
+      <c r="C241" t="s">
+        <v>41</v>
+      </c>
+      <c r="D241" t="s">
+        <v>100</v>
+      </c>
+      <c r="E241" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>109343</v>
+      </c>
+      <c r="B242" t="s">
+        <v>264</v>
+      </c>
+      <c r="C242" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" t="s">
+        <v>101</v>
+      </c>
+      <c r="E242" t="s">
+        <v>17</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>109437</v>
+      </c>
+      <c r="B243" t="s">
+        <v>265</v>
+      </c>
+      <c r="C243" t="s">
+        <v>41</v>
+      </c>
+      <c r="D243" t="s">
+        <v>42</v>
+      </c>
+      <c r="E243" t="s">
+        <v>17</v>
+      </c>
+      <c r="F243" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>109478</v>
+      </c>
+      <c r="B244" t="s">
+        <v>266</v>
+      </c>
+      <c r="C244" t="s">
+        <v>41</v>
+      </c>
+      <c r="E244" t="s">
+        <v>17</v>
+      </c>
+      <c r="F244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>109806</v>
+      </c>
+      <c r="B245" t="s">
+        <v>267</v>
+      </c>
+      <c r="C245" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" t="s">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>17</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>109927</v>
+      </c>
+      <c r="B246" t="s">
+        <v>268</v>
+      </c>
+      <c r="C246" t="s">
+        <v>50</v>
+      </c>
+      <c r="E246" t="s">
+        <v>17</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>110026</v>
+      </c>
+      <c r="B247" t="s">
+        <v>269</v>
+      </c>
+      <c r="C247" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" t="s">
+        <v>17</v>
+      </c>
+      <c r="F247" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>110136</v>
+      </c>
+      <c r="B248" t="s">
+        <v>270</v>
+      </c>
+      <c r="C248" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" t="s">
+        <v>17</v>
+      </c>
+      <c r="F248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>110140</v>
+      </c>
+      <c r="B249" t="s">
+        <v>271</v>
+      </c>
+      <c r="C249" t="s">
+        <v>41</v>
+      </c>
+      <c r="E249" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>110243</v>
+      </c>
+      <c r="B250" t="s">
+        <v>272</v>
+      </c>
+      <c r="C250" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" t="s">
+        <v>17</v>
+      </c>
+      <c r="F250" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>110336</v>
+      </c>
+      <c r="B251" t="s">
+        <v>273</v>
+      </c>
+      <c r="C251" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251" t="s">
+        <v>42</v>
+      </c>
+      <c r="E251" t="s">
+        <v>17</v>
+      </c>
+      <c r="F251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>110433</v>
+      </c>
+      <c r="B252" t="s">
+        <v>274</v>
+      </c>
+      <c r="C252" t="s">
+        <v>41</v>
+      </c>
+      <c r="E252" t="s">
+        <v>17</v>
+      </c>
+      <c r="F252" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>110491</v>
+      </c>
+      <c r="B253" t="s">
+        <v>275</v>
+      </c>
+      <c r="C253" t="s">
+        <v>37</v>
+      </c>
+      <c r="D253" t="s">
+        <v>38</v>
+      </c>
+      <c r="E253" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>110520</v>
+      </c>
+      <c r="B254" t="s">
+        <v>276</v>
+      </c>
+      <c r="C254" t="s">
+        <v>86</v>
+      </c>
+      <c r="D254" t="s">
+        <v>93</v>
+      </c>
+      <c r="E254" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>110521</v>
+      </c>
+      <c r="B255" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" t="s">
+        <v>37</v>
+      </c>
+      <c r="D255" t="s">
+        <v>94</v>
+      </c>
+      <c r="E255" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>110522</v>
+      </c>
+      <c r="B256" t="s">
+        <v>276</v>
+      </c>
+      <c r="C256" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" t="s">
+        <v>95</v>
+      </c>
+      <c r="E256" t="s">
+        <v>17</v>
+      </c>
+      <c r="F256" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>111552</v>
+      </c>
+      <c r="B257" t="s">
+        <v>277</v>
+      </c>
+      <c r="C257" t="s">
+        <v>37</v>
+      </c>
+      <c r="D257" t="s">
+        <v>113</v>
+      </c>
+      <c r="E257" t="s">
+        <v>17</v>
+      </c>
+      <c r="F257" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>112115</v>
+      </c>
+      <c r="B258" t="s">
+        <v>278</v>
+      </c>
+      <c r="C258" t="s">
+        <v>41</v>
+      </c>
+      <c r="D258" t="s">
+        <v>49</v>
+      </c>
+      <c r="E258" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>112215</v>
+      </c>
+      <c r="B259" t="s">
+        <v>279</v>
+      </c>
+      <c r="C259" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" t="s">
+        <v>38</v>
+      </c>
+      <c r="E259" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>112444</v>
+      </c>
+      <c r="B260" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" t="s">
+        <v>49</v>
+      </c>
+      <c r="E260" t="s">
+        <v>17</v>
+      </c>
+      <c r="F260" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>112899</v>
+      </c>
+      <c r="B261" t="s">
+        <v>281</v>
+      </c>
+      <c r="C261" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" t="s">
+        <v>68</v>
+      </c>
+      <c r="E261" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>112935</v>
+      </c>
+      <c r="B262" t="s">
+        <v>282</v>
+      </c>
+      <c r="C262" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" t="s">
+        <v>68</v>
+      </c>
+      <c r="E262" t="s">
+        <v>17</v>
+      </c>
+      <c r="F262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>113160</v>
+      </c>
+      <c r="B263" t="s">
+        <v>283</v>
+      </c>
+      <c r="C263" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" t="s">
+        <v>52</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+      <c r="F263" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>113162</v>
+      </c>
+      <c r="B264" t="s">
+        <v>283</v>
+      </c>
+      <c r="C264" t="s">
+        <v>41</v>
+      </c>
+      <c r="D264" t="s">
+        <v>49</v>
+      </c>
+      <c r="E264" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H141">
+    <sortCondition ref="E2:E141"/>
+  </sortState>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G17 G19:G20 G22:G28 G31 G33:G35 G39:G44">
+      <formula1>$K$2:$K$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44">
+      <formula1>$L$2:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H142:H264">
+      <formula1>$L$2:$L$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G142:G264">
+      <formula1>$K$2:$K$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>